--- a/results/CSG/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/CSG/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>402.8535691093449</v>
+        <v>402.8535691093448</v>
       </c>
       <c r="H2">
         <v>77.7149366389871</v>
       </c>
       <c r="I2">
-        <v>325.1386324703578</v>
+        <v>325.1386324703577</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -663,7 +663,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.909479127284704</v>
+        <v>0.9094791272847037</v>
       </c>
       <c r="O2">
         <v>557.3957175557402</v>
@@ -690,7 +690,7 @@
         <v>197.2567092731358</v>
       </c>
       <c r="W2">
-        <v>677.8701161831486</v>
+        <v>677.8701161831488</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
@@ -699,7 +699,7 @@
         <v>645.5089196677927</v>
       </c>
       <c r="Z2">
-        <v>1.050132841746029</v>
+        <v>1.05013284174603</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>528.7049157365506</v>
+        <v>528.7049157365504</v>
       </c>
       <c r="H3">
         <v>76.32335744562776</v>
       </c>
       <c r="I3">
-        <v>452.3815582909228</v>
+        <v>452.3815582909227</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,10 +743,10 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>528.7049157365506</v>
+        <v>528.7049157365504</v>
       </c>
       <c r="P3">
         <v>76.32335744562776</v>
@@ -755,22 +755,22 @@
         <v>1.935451443118261</v>
       </c>
       <c r="R3">
-        <v>304.6614059791517</v>
+        <v>304.6614059791516</v>
       </c>
       <c r="S3">
-        <v>6.927170573086965</v>
+        <v>6.927170573086964</v>
       </c>
       <c r="T3">
-        <v>6.927170573086965</v>
+        <v>6.927170573086964</v>
       </c>
       <c r="U3">
         <v>1.935451443118261</v>
       </c>
       <c r="V3">
-        <v>304.6614059791517</v>
+        <v>304.6614059791516</v>
       </c>
       <c r="W3">
-        <v>573.8005017071878</v>
+        <v>573.800501707188</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
@@ -802,13 +802,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>456.6260876059086</v>
+        <v>456.6260876059084</v>
       </c>
       <c r="H4">
         <v>104.67879609134</v>
       </c>
       <c r="I4">
-        <v>351.9472915145686</v>
+        <v>351.9472915145684</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -823,10 +823,10 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O4">
-        <v>456.6260876059086</v>
+        <v>456.6260876059084</v>
       </c>
       <c r="P4">
         <v>104.67879609134</v>
@@ -835,22 +835,22 @@
         <v>1.472968290199861</v>
       </c>
       <c r="R4">
-        <v>197.7587442157276</v>
+        <v>197.7587442157275</v>
       </c>
       <c r="S4">
-        <v>4.362164112085017</v>
+        <v>4.362164112085015</v>
       </c>
       <c r="T4">
-        <v>4.362164112085017</v>
+        <v>4.362164112085015</v>
       </c>
       <c r="U4">
         <v>1.472968290199861</v>
       </c>
       <c r="V4">
-        <v>197.7587442157276</v>
+        <v>197.7587442157275</v>
       </c>
       <c r="W4">
-        <v>694.2375032150508</v>
+        <v>694.237503215051</v>
       </c>
       <c r="X4">
         <v>1046.184794729619</v>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>537.297922507285</v>
+        <v>537.2979225072849</v>
       </c>
       <c r="H7">
         <v>38.90961801632167</v>
       </c>
       <c r="I7">
-        <v>498.3883044909633</v>
+        <v>498.3883044909632</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,10 +1063,10 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O7">
-        <v>537.297922507285</v>
+        <v>537.2979225072849</v>
       </c>
       <c r="P7">
         <v>38.90961801632167</v>
@@ -1075,22 +1075,22 @@
         <v>2.625311261345743</v>
       </c>
       <c r="R7">
-        <v>396.2384461380527</v>
+        <v>396.2384461380526</v>
       </c>
       <c r="S7">
-        <v>13.80887168519365</v>
+        <v>13.80887168519364</v>
       </c>
       <c r="T7">
-        <v>13.80887168519365</v>
+        <v>13.80887168519364</v>
       </c>
       <c r="U7">
         <v>2.625311261345743</v>
       </c>
       <c r="V7">
-        <v>396.2384461380527</v>
+        <v>396.2384461380526</v>
       </c>
       <c r="W7">
-        <v>577.8650575629038</v>
+        <v>577.8650575629039</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
@@ -1122,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>535.4869833518909</v>
+        <v>535.4869833518908</v>
       </c>
       <c r="H8">
         <v>36.57307581170198</v>
       </c>
       <c r="I8">
-        <v>498.9139075401889</v>
+        <v>498.9139075401888</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1146,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>535.4869833518909</v>
+        <v>535.4869833518908</v>
       </c>
       <c r="P8">
         <v>36.57307581170198</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990122</v>
+        <v>2.683864245990121</v>
       </c>
       <c r="R8">
-        <v>400.7567370032758</v>
+        <v>400.7567370032757</v>
       </c>
       <c r="S8">
         <v>14.64156271976872</v>
@@ -1164,13 +1164,13 @@
         <v>14.64156271976872</v>
       </c>
       <c r="U8">
-        <v>2.683864245990122</v>
+        <v>2.683864245990121</v>
       </c>
       <c r="V8">
-        <v>400.7567370032758</v>
+        <v>400.7567370032757</v>
       </c>
       <c r="W8">
-        <v>577.9785092332223</v>
+        <v>577.9785092332224</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
@@ -1179,7 +1179,7 @@
         <v>577.9785092332224</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1288,7 +1288,7 @@
         <v>64.52614116356334</v>
       </c>
       <c r="I10">
-        <v>364.3785958534747</v>
+        <v>364.3785958534746</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1312,25 +1312,25 @@
         <v>64.52614116356334</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982344</v>
+        <v>1.894164404982343</v>
       </c>
       <c r="R10">
         <v>242.155476070587</v>
       </c>
       <c r="S10">
-        <v>6.646991890152456</v>
+        <v>6.646991890152455</v>
       </c>
       <c r="T10">
-        <v>6.646991890152456</v>
+        <v>6.646991890152455</v>
       </c>
       <c r="U10">
-        <v>1.894164404982344</v>
+        <v>1.894164404982343</v>
       </c>
       <c r="V10">
         <v>242.155476070587</v>
       </c>
       <c r="W10">
-        <v>615.9699479126814</v>
+        <v>615.9699479126815</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
@@ -1339,7 +1339,7 @@
         <v>615.9699479126815</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1362,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>506.1946670291918</v>
+        <v>506.1946670291917</v>
       </c>
       <c r="H11">
         <v>74.14306854838594</v>
       </c>
       <c r="I11">
-        <v>432.0515984808059</v>
+        <v>432.0515984808058</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>506.1946670291918</v>
+        <v>506.1946670291917</v>
       </c>
       <c r="P11">
         <v>74.14306854838594</v>
@@ -1395,22 +1395,22 @@
         <v>1.92092472731819</v>
       </c>
       <c r="R11">
-        <v>289.6283447469638</v>
+        <v>289.6283447469636</v>
       </c>
       <c r="S11">
-        <v>6.827268913193794</v>
+        <v>6.827268913193793</v>
       </c>
       <c r="T11">
-        <v>6.827268913193794</v>
+        <v>6.827268913193793</v>
       </c>
       <c r="U11">
         <v>1.92092472731819</v>
       </c>
       <c r="V11">
-        <v>289.6283447469638</v>
+        <v>289.6283447469636</v>
       </c>
       <c r="W11">
-        <v>657.9416058626856</v>
+        <v>657.9416058626857</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
@@ -1419,7 +1419,7 @@
         <v>657.9416058626857</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>419.67842183392</v>
+        <v>419.6784218339201</v>
       </c>
       <c r="H12">
         <v>78.47176378619696</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>419.67842183392</v>
+        <v>419.6784218339201</v>
       </c>
       <c r="P12">
         <v>78.47176378619696</v>
@@ -1478,10 +1478,10 @@
         <v>209.6291365457212</v>
       </c>
       <c r="S12">
-        <v>5.348145646087041</v>
+        <v>5.348145646087042</v>
       </c>
       <c r="T12">
-        <v>5.348145646087041</v>
+        <v>5.348145646087042</v>
       </c>
       <c r="U12">
         <v>1.676749892617377</v>
@@ -1546,19 +1546,19 @@
         <v>0.9623823085159555</v>
       </c>
       <c r="O13">
-        <v>539.9925089263924</v>
+        <v>539.9925089263921</v>
       </c>
       <c r="P13">
         <v>58.89083095514691</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953769</v>
+        <v>2.215869859953768</v>
       </c>
       <c r="R13">
-        <v>350.607260630103</v>
+        <v>350.6072606301028</v>
       </c>
       <c r="S13">
-        <v>9.169381721539427</v>
+        <v>9.169381721539423</v>
       </c>
       <c r="T13">
         <v>13.87162868163201</v>
@@ -1626,7 +1626,7 @@
         <v>0.9790455816531393</v>
       </c>
       <c r="O14">
-        <v>499.0476433600485</v>
+        <v>499.0476433600487</v>
       </c>
       <c r="P14">
         <v>76.4006209487325</v>
@@ -1635,10 +1635,10 @@
         <v>1.876710745128607</v>
       </c>
       <c r="R14">
-        <v>279.265156142332</v>
+        <v>279.2651561423322</v>
       </c>
       <c r="S14">
-        <v>6.531984127392461</v>
+        <v>6.531984127392462</v>
       </c>
       <c r="T14">
         <v>7.871996680596643</v>
@@ -1842,13 +1842,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>525.5309912556434</v>
+        <v>525.5309912556432</v>
       </c>
       <c r="H17">
         <v>53.84016612734731</v>
       </c>
       <c r="I17">
-        <v>471.6908251282961</v>
+        <v>471.690825128296</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1866,31 +1866,31 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>525.5309912556434</v>
+        <v>525.5309912556432</v>
       </c>
       <c r="P17">
         <v>53.84016612734731</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468205</v>
+        <v>2.278389392468204</v>
       </c>
       <c r="R17">
-        <v>349.021961735022</v>
+        <v>349.0219617350219</v>
       </c>
       <c r="S17">
-        <v>9.760946688251538</v>
+        <v>9.760946688251536</v>
       </c>
       <c r="T17">
-        <v>9.760946688251538</v>
+        <v>9.760946688251536</v>
       </c>
       <c r="U17">
-        <v>2.278389392468205</v>
+        <v>2.278389392468204</v>
       </c>
       <c r="V17">
-        <v>349.021961735022</v>
+        <v>349.0219617350219</v>
       </c>
       <c r="W17">
-        <v>614.0388349318952</v>
+        <v>614.0388349318953</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
@@ -1899,7 +1899,7 @@
         <v>614.0388349318953</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2008,7 +2008,7 @@
         <v>92.84540610367907</v>
       </c>
       <c r="I19">
-        <v>414.0192852051964</v>
+        <v>414.0192852051965</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -2038,10 +2038,10 @@
         <v>256.4320089546447</v>
       </c>
       <c r="S19">
-        <v>5.459232853619783</v>
+        <v>5.459232853619784</v>
       </c>
       <c r="T19">
-        <v>5.459232853619783</v>
+        <v>5.459232853619784</v>
       </c>
       <c r="U19">
         <v>1.697308276885303</v>
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>444.7102097108974</v>
+        <v>444.7102097108975</v>
       </c>
       <c r="H20">
         <v>37.04318147193647</v>
       </c>
       <c r="I20">
-        <v>407.6670282389609</v>
+        <v>407.667028238961</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.949584272206621</v>
+        <v>0.9495842722066212</v>
       </c>
       <c r="O20">
         <v>504.9803370094003</v>
@@ -2127,7 +2127,7 @@
         <v>2.485338556941149</v>
       </c>
       <c r="V20">
-        <v>315.6021810549892</v>
+        <v>315.6021810549893</v>
       </c>
       <c r="W20">
         <v>648.3000722829404</v>
@@ -2426,7 +2426,7 @@
         <v>0.9154138236555925</v>
       </c>
       <c r="O24">
-        <v>654.8531363540125</v>
+        <v>654.8531363540123</v>
       </c>
       <c r="P24">
         <v>46.11118107218711</v>
@@ -2435,7 +2435,7 @@
         <v>2.653355531066012</v>
       </c>
       <c r="R24">
-        <v>486.3925979399513</v>
+        <v>486.3925979399511</v>
       </c>
       <c r="S24">
         <v>14.2016127352895</v>
@@ -2506,7 +2506,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="O25">
-        <v>565.1724489516334</v>
+        <v>565.1724489516336</v>
       </c>
       <c r="P25">
         <v>38.07317009354327</v>
@@ -2515,10 +2515,10 @@
         <v>2.697621066910294</v>
       </c>
       <c r="R25">
-        <v>424.3922931296889</v>
+        <v>424.392293129689</v>
       </c>
       <c r="S25">
-        <v>14.84437590993978</v>
+        <v>14.84437590993979</v>
       </c>
       <c r="T25">
         <v>14.84437590993978</v>
@@ -2562,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>654.1143554917093</v>
+        <v>654.114355491709</v>
       </c>
       <c r="H26">
         <v>24.38298612188556</v>
       </c>
       <c r="I26">
-        <v>629.7313693698237</v>
+        <v>629.7313693698235</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,34 +2583,34 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O26">
-        <v>654.1143554917093</v>
+        <v>654.114355491709</v>
       </c>
       <c r="P26">
         <v>24.38298612188556</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670973</v>
+        <v>3.289396592670972</v>
       </c>
       <c r="R26">
-        <v>549.5260579013498</v>
+        <v>549.5260579013495</v>
       </c>
       <c r="S26">
-        <v>26.82667136100252</v>
+        <v>26.82667136100251</v>
       </c>
       <c r="T26">
-        <v>26.82667136100252</v>
+        <v>26.82667136100251</v>
       </c>
       <c r="U26">
-        <v>3.289396592670973</v>
+        <v>3.289396592670972</v>
       </c>
       <c r="V26">
-        <v>549.5260579013498</v>
+        <v>549.5260579013495</v>
       </c>
       <c r="W26">
-        <v>478.0925617625186</v>
+        <v>478.0925617625188</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
@@ -2619,7 +2619,7 @@
         <v>478.0925617625187</v>
       </c>
       <c r="Z26">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2642,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>688.3324197142417</v>
+        <v>688.332419714242</v>
       </c>
       <c r="H27">
         <v>19.33742141962198</v>
       </c>
       <c r="I27">
-        <v>668.9949982946198</v>
+        <v>668.99499829462</v>
       </c>
       <c r="J27">
         <v>0.1</v>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>688.3324197142417</v>
+        <v>688.332419714242</v>
       </c>
       <c r="P27">
         <v>19.33742141962198</v>
@@ -2675,22 +2675,22 @@
         <v>3.572229737170086</v>
       </c>
       <c r="R27">
-        <v>599.9172864592564</v>
+        <v>599.9172864592566</v>
       </c>
       <c r="S27">
-        <v>35.59587417460842</v>
+        <v>35.59587417460843</v>
       </c>
       <c r="T27">
-        <v>35.59587417460842</v>
+        <v>35.59587417460843</v>
       </c>
       <c r="U27">
         <v>3.572229737170086</v>
       </c>
       <c r="V27">
-        <v>599.9172864592564</v>
+        <v>599.9172864592566</v>
       </c>
       <c r="W27">
-        <v>416.2254289725461</v>
+        <v>416.2254289725458</v>
       </c>
       <c r="X27">
         <v>1085.220427267166</v>
@@ -2699,7 +2699,7 @@
         <v>416.2254289725461</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2722,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>779.9290081588408</v>
+        <v>779.9290081588406</v>
       </c>
       <c r="H28">
         <v>34.53308565636632</v>
       </c>
       <c r="I28">
-        <v>745.3959225024745</v>
+        <v>745.3959225024743</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -2743,10 +2743,10 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O28">
-        <v>779.9290081588408</v>
+        <v>779.9290081588406</v>
       </c>
       <c r="P28">
         <v>34.53308565636632</v>
@@ -2755,22 +2755,22 @@
         <v>3.117285031341922</v>
       </c>
       <c r="R28">
-        <v>637.7464514998353</v>
+        <v>637.7464514998351</v>
       </c>
       <c r="S28">
-        <v>22.58497882059542</v>
+        <v>22.58497882059541</v>
       </c>
       <c r="T28">
-        <v>22.58497882059542</v>
+        <v>22.58497882059541</v>
       </c>
       <c r="U28">
         <v>3.117285031341922</v>
       </c>
       <c r="V28">
-        <v>637.7464514998353</v>
+        <v>637.7464514998351</v>
       </c>
       <c r="W28">
-        <v>455.7284887196498</v>
+        <v>455.72848871965</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
@@ -2779,7 +2779,7 @@
         <v>455.7284887196499</v>
       </c>
       <c r="Z28">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>524.6575727565481</v>
+        <v>524.6575727565482</v>
       </c>
       <c r="P30">
         <v>41.94637589921254</v>
@@ -2915,7 +2915,7 @@
         <v>2.52635376919962</v>
       </c>
       <c r="R30">
-        <v>376.7398120000959</v>
+        <v>376.739812000096</v>
       </c>
       <c r="S30">
         <v>12.50781650403313</v>

--- a/results/CSG/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/CSG/dataset_07/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>402.8535691093448</v>
+        <v>719.5294281303313</v>
       </c>
       <c r="H2">
-        <v>77.7149366389871</v>
+        <v>161.8358650250638</v>
       </c>
       <c r="I2">
-        <v>325.1386324703577</v>
+        <v>557.6935631052676</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>357.4998289857137</v>
+        <v>573.3888778517335</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9094791272847037</v>
+        <v>0.9726271029091632</v>
       </c>
       <c r="O2">
-        <v>557.3957175557402</v>
+        <v>794.2830386233179</v>
       </c>
       <c r="P2">
-        <v>199.8958885700265</v>
+        <v>220.8941607715842</v>
       </c>
       <c r="Q2">
-        <v>1.025478758264612</v>
+        <v>1.279756193276276</v>
       </c>
       <c r="R2">
-        <v>152.5108413927217</v>
+        <v>290.6982075457334</v>
       </c>
       <c r="S2">
-        <v>2.788430125017185</v>
+        <v>3.59576294750791</v>
       </c>
       <c r="T2">
-        <v>5.183734125406803</v>
+        <v>4.446044317919868</v>
       </c>
       <c r="U2">
-        <v>1.645525670197455</v>
+        <v>1.492014783535479</v>
       </c>
       <c r="V2">
-        <v>197.2567092731358</v>
+        <v>316.23205998162</v>
       </c>
       <c r="W2">
-        <v>677.8701161831488</v>
+        <v>445.3151855482389</v>
       </c>
       <c r="X2">
         <v>1003.008748653506</v>
       </c>
       <c r="Y2">
-        <v>645.5089196677927</v>
+        <v>429.619870801773</v>
       </c>
       <c r="Z2">
-        <v>1.05013284174603</v>
+        <v>1.036533027946716</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>528.7049157365504</v>
+        <v>882.905006376526</v>
       </c>
       <c r="H3">
-        <v>76.32335744562776</v>
+        <v>168.6938907107667</v>
       </c>
       <c r="I3">
-        <v>452.3815582909227</v>
+        <v>714.2111156657593</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>452.3815582909228</v>
+        <v>714.2111156657595</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
         <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>528.7049157365504</v>
+        <v>882.905006376526</v>
       </c>
       <c r="P3">
-        <v>76.32335744562776</v>
+        <v>168.6938907107667</v>
       </c>
       <c r="Q3">
-        <v>1.935451443118261</v>
+        <v>1.655131839298548</v>
       </c>
       <c r="R3">
-        <v>304.6614059791516</v>
+        <v>435.0004860552197</v>
       </c>
       <c r="S3">
-        <v>6.927170573086964</v>
+        <v>5.233769893245905</v>
       </c>
       <c r="T3">
-        <v>6.927170573086964</v>
+        <v>5.233769893245905</v>
       </c>
       <c r="U3">
-        <v>1.935451443118261</v>
+        <v>1.655131839298548</v>
       </c>
       <c r="V3">
-        <v>304.6614059791516</v>
+        <v>435.0004860552197</v>
       </c>
       <c r="W3">
-        <v>573.800501707188</v>
+        <v>311.9709443323513</v>
       </c>
       <c r="X3">
         <v>1026.182059998111</v>
       </c>
       <c r="Y3">
-        <v>573.8005017071878</v>
+        <v>311.9709443323511</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>456.6260876059084</v>
+        <v>711.2242368332307</v>
       </c>
       <c r="H4">
-        <v>104.67879609134</v>
+        <v>179.4224327274802</v>
       </c>
       <c r="I4">
-        <v>351.9472915145684</v>
+        <v>531.8018041057505</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>351.9472915145686</v>
+        <v>575.0594454227252</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999996</v>
+        <v>0.9247770962440657</v>
       </c>
       <c r="O4">
-        <v>456.6260876059084</v>
+        <v>814.4638785740743</v>
       </c>
       <c r="P4">
-        <v>104.67879609134</v>
+        <v>239.4044331513487</v>
       </c>
       <c r="Q4">
-        <v>1.472968290199861</v>
+        <v>1.224375768372575</v>
       </c>
       <c r="R4">
-        <v>197.7587442157275</v>
+        <v>281.9384586312422</v>
       </c>
       <c r="S4">
-        <v>4.362164112085015</v>
+        <v>3.402041757761351</v>
       </c>
       <c r="T4">
-        <v>4.362164112085015</v>
+        <v>3.963964962583522</v>
       </c>
       <c r="U4">
-        <v>1.472968290199861</v>
+        <v>1.37724477752442</v>
       </c>
       <c r="V4">
-        <v>197.7587442157275</v>
+        <v>284.6931956611018</v>
       </c>
       <c r="W4">
-        <v>694.237503215051</v>
+        <v>514.3829906238689</v>
       </c>
       <c r="X4">
         <v>1046.184794729619</v>
       </c>
       <c r="Y4">
-        <v>694.2375032150508</v>
+        <v>471.1253493068942</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.091817690091637</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>556.9758092718383</v>
+        <v>784.0074710582547</v>
       </c>
       <c r="H5">
-        <v>118.4363462834138</v>
+        <v>176.4862200148085</v>
       </c>
       <c r="I5">
-        <v>438.5394629884245</v>
+        <v>607.5212510434462</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>438.5394629884245</v>
+        <v>629.0649500864163</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9657528224390652</v>
       </c>
       <c r="O5">
-        <v>556.9758092718383</v>
+        <v>859.9064499472577</v>
       </c>
       <c r="P5">
-        <v>118.4363462834138</v>
+        <v>230.8414998608416</v>
       </c>
       <c r="Q5">
-        <v>1.548146154505865</v>
+        <v>1.315092276973478</v>
       </c>
       <c r="R5">
-        <v>255.1826889360325</v>
+        <v>325.4870764144489</v>
       </c>
       <c r="S5">
-        <v>4.702743935877724</v>
+        <v>3.725094709857785</v>
       </c>
       <c r="T5">
-        <v>4.702743935877724</v>
+        <v>4.442315501983501</v>
       </c>
       <c r="U5">
-        <v>1.548146154505865</v>
+        <v>1.491175749961081</v>
       </c>
       <c r="V5">
-        <v>255.1826889360325</v>
+        <v>344.3492795550678</v>
       </c>
       <c r="W5">
-        <v>594.9649711509169</v>
+        <v>425.9831830958951</v>
       </c>
       <c r="X5">
         <v>1033.504434139341</v>
       </c>
       <c r="Y5">
-        <v>594.9649711509169</v>
+        <v>404.4394840529251</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>1.05326804106038</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>563.3232989669328</v>
+        <v>864.1353785937514</v>
       </c>
       <c r="H6">
-        <v>86.31371328024902</v>
+        <v>180.4948491811035</v>
       </c>
       <c r="I6">
-        <v>477.0095856866838</v>
+        <v>683.6405294126479</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>477.0095856866839</v>
+        <v>683.6405294126477</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>563.3232989669328</v>
+        <v>864.1353785937511</v>
       </c>
       <c r="P6">
-        <v>86.31371328024902</v>
+        <v>180.4948491811035</v>
       </c>
       <c r="Q6">
-        <v>1.875865218703646</v>
+        <v>1.566027203743969</v>
       </c>
       <c r="R6">
-        <v>315.0966930471057</v>
+        <v>400.9806854593746</v>
       </c>
       <c r="S6">
-        <v>6.526463496453893</v>
+        <v>4.787590241573606</v>
       </c>
       <c r="T6">
-        <v>6.526463496453893</v>
+        <v>4.787590241573608</v>
       </c>
       <c r="U6">
-        <v>1.875865218703646</v>
+        <v>1.566027203743969</v>
       </c>
       <c r="V6">
-        <v>315.0966930471057</v>
+        <v>400.9806854593749</v>
       </c>
       <c r="W6">
-        <v>585.4522741874212</v>
+        <v>378.821330461457</v>
       </c>
       <c r="X6">
         <v>1062.461859874105</v>
       </c>
       <c r="Y6">
-        <v>585.452274187421</v>
+        <v>378.8213304614573</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,64 +1039,64 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>537.2979225072849</v>
+        <v>838.7998606466221</v>
       </c>
       <c r="H7">
-        <v>38.90961801632167</v>
+        <v>97.71303374125684</v>
       </c>
       <c r="I7">
-        <v>498.3883044909632</v>
+        <v>741.0868269053652</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>498.3883044909633</v>
+        <v>741.0868269053652</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>537.2979225072849</v>
+        <v>838.7998606466223</v>
       </c>
       <c r="P7">
-        <v>38.90961801632167</v>
+        <v>97.71303374125685</v>
       </c>
       <c r="Q7">
-        <v>2.625311261345743</v>
+        <v>2.149937176997859</v>
       </c>
       <c r="R7">
-        <v>396.2384461380526</v>
+        <v>531.0099429877911</v>
       </c>
       <c r="S7">
-        <v>13.80887168519364</v>
+        <v>8.584319087541136</v>
       </c>
       <c r="T7">
-        <v>13.80887168519364</v>
+        <v>8.584319087541136</v>
       </c>
       <c r="U7">
-        <v>2.625311261345743</v>
+        <v>2.149937176997859</v>
       </c>
       <c r="V7">
-        <v>396.2384461380526</v>
+        <v>531.009942987791</v>
       </c>
       <c r="W7">
-        <v>577.8650575629039</v>
+        <v>335.1665351485018</v>
       </c>
       <c r="X7">
         <v>1076.253362053867</v>
       </c>
       <c r="Y7">
-        <v>577.8650575629038</v>
+        <v>335.1665351485018</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>535.4869833518908</v>
+        <v>928.7605972863145</v>
       </c>
       <c r="H8">
-        <v>36.57307581170198</v>
+        <v>108.609875047918</v>
       </c>
       <c r="I8">
-        <v>498.9139075401888</v>
+        <v>820.1507222383965</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>498.9139075401888</v>
+        <v>820.1507222383964</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>535.4869833518908</v>
+        <v>928.7605972863145</v>
       </c>
       <c r="P8">
-        <v>36.57307581170198</v>
+        <v>108.609875047918</v>
       </c>
       <c r="Q8">
-        <v>2.683864245990121</v>
+        <v>2.146088672409213</v>
       </c>
       <c r="R8">
-        <v>400.7567370032757</v>
+        <v>587.0642996862796</v>
       </c>
       <c r="S8">
-        <v>14.64156271976872</v>
+        <v>8.551345785791126</v>
       </c>
       <c r="T8">
-        <v>14.64156271976872</v>
+        <v>8.551345785791126</v>
       </c>
       <c r="U8">
-        <v>2.683864245990121</v>
+        <v>2.146088672409213</v>
       </c>
       <c r="V8">
-        <v>400.7567370032757</v>
+        <v>587.0642996862796</v>
       </c>
       <c r="W8">
-        <v>577.9785092332224</v>
+        <v>256.7416945350147</v>
       </c>
       <c r="X8">
         <v>1076.892416773411</v>
       </c>
       <c r="Y8">
-        <v>577.9785092332224</v>
+        <v>256.7416945350149</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>436.5787974906394</v>
+        <v>739.4223945077233</v>
       </c>
       <c r="H9">
-        <v>89.18904813086739</v>
+        <v>177.318975778393</v>
       </c>
       <c r="I9">
-        <v>347.3897493597721</v>
+        <v>562.1034187293303</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>353.5430215259461</v>
+        <v>570.1988012359144</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9825954076547303</v>
+        <v>0.985802526260951</v>
       </c>
       <c r="O9">
-        <v>524.6424153127471</v>
+        <v>806.1950430808654</v>
       </c>
       <c r="P9">
-        <v>171.0993937868009</v>
+        <v>235.9962418449508</v>
       </c>
       <c r="Q9">
-        <v>1.120472278980915</v>
+        <v>1.228509821653091</v>
       </c>
       <c r="R9">
-        <v>161.8308938373964</v>
+        <v>280.2751002561744</v>
       </c>
       <c r="S9">
-        <v>3.066302011370536</v>
+        <v>3.416135090873754</v>
       </c>
       <c r="T9">
-        <v>4.894982137829814</v>
+        <v>4.17001277647705</v>
       </c>
       <c r="U9">
-        <v>1.588210626911426</v>
+        <v>1.427919099709386</v>
       </c>
       <c r="V9">
-        <v>205.7387553142138</v>
+        <v>308.906266474457</v>
       </c>
       <c r="W9">
-        <v>705.7571698052117</v>
+        <v>491.0435004356534</v>
       </c>
       <c r="X9">
         <v>1053.146919164984</v>
       </c>
       <c r="Y9">
-        <v>699.6038976390377</v>
+        <v>482.9481179290693</v>
       </c>
       <c r="Z9">
-        <v>1.008795365759024</v>
+        <v>1.016762426865432</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>428.904737017038</v>
+        <v>630.17861791403</v>
       </c>
       <c r="H10">
-        <v>64.52614116356334</v>
+        <v>125.6568220849428</v>
       </c>
       <c r="I10">
-        <v>364.3785958534746</v>
+        <v>504.5217958290872</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>364.3785958534746</v>
+        <v>524.0974120145718</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9626488974440113</v>
       </c>
       <c r="O10">
-        <v>428.904737017038</v>
+        <v>675.2340556614342</v>
       </c>
       <c r="P10">
-        <v>64.52614116356334</v>
+        <v>151.1366436468626</v>
       </c>
       <c r="Q10">
-        <v>1.894164404982343</v>
+        <v>1.496875027466027</v>
       </c>
       <c r="R10">
-        <v>242.155476070587</v>
+        <v>297.8647444045509</v>
       </c>
       <c r="S10">
-        <v>6.646991890152455</v>
+        <v>4.467705775173545</v>
       </c>
       <c r="T10">
-        <v>6.646991890152455</v>
+        <v>5.015076837515717</v>
       </c>
       <c r="U10">
-        <v>1.894164404982343</v>
+        <v>1.612448742835053</v>
       </c>
       <c r="V10">
-        <v>242.155476070587</v>
+        <v>301.9066110295732</v>
       </c>
       <c r="W10">
-        <v>615.9699479126815</v>
+        <v>475.8267479370689</v>
       </c>
       <c r="X10">
         <v>980.3485437661561</v>
       </c>
       <c r="Y10">
-        <v>615.9699479126815</v>
+        <v>456.2511317515844</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.042905353703633</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>506.1946670291917</v>
+        <v>861.2573860087831</v>
       </c>
       <c r="H11">
-        <v>74.14306854838594</v>
+        <v>160.1299181045766</v>
       </c>
       <c r="I11">
-        <v>432.0515984808058</v>
+        <v>701.1274679042065</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>432.0515984808058</v>
+        <v>705.3441078077785</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.9940218683945947</v>
       </c>
       <c r="O11">
-        <v>506.1946670291917</v>
+        <v>875.9331000902613</v>
       </c>
       <c r="P11">
-        <v>74.14306854838594</v>
+        <v>170.5889922824829</v>
       </c>
       <c r="Q11">
-        <v>1.92092472731819</v>
+        <v>1.63603260883359</v>
       </c>
       <c r="R11">
-        <v>289.6283447469636</v>
+        <v>426.2549537255746</v>
       </c>
       <c r="S11">
-        <v>6.827268913193793</v>
+        <v>5.134757456329773</v>
       </c>
       <c r="T11">
-        <v>6.827268913193793</v>
+        <v>5.378491391260932</v>
       </c>
       <c r="U11">
-        <v>1.92092472731819</v>
+        <v>1.682407924305009</v>
       </c>
       <c r="V11">
-        <v>289.6283447469636</v>
+        <v>431.7236247667547</v>
       </c>
       <c r="W11">
-        <v>657.9416058626857</v>
+        <v>388.865736439285</v>
       </c>
       <c r="X11">
         <v>1089.993204343491</v>
       </c>
       <c r="Y11">
-        <v>657.9416058626857</v>
+        <v>384.6490965357129</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>1.010962302892555</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>419.6784218339201</v>
+        <v>736.7200331575632</v>
       </c>
       <c r="H12">
-        <v>78.47176378619696</v>
+        <v>183.4460842054389</v>
       </c>
       <c r="I12">
-        <v>341.2066580477231</v>
+        <v>553.2739489521243</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>341.2066580477231</v>
+        <v>553.2739489521241</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>419.6784218339201</v>
+        <v>736.7200331575632</v>
       </c>
       <c r="P12">
-        <v>78.47176378619696</v>
+        <v>183.4460842054389</v>
       </c>
       <c r="Q12">
-        <v>1.676749892617377</v>
+        <v>1.390287141142696</v>
       </c>
       <c r="R12">
-        <v>209.6291365457212</v>
+        <v>298.2312169883224</v>
       </c>
       <c r="S12">
-        <v>5.348145646087042</v>
+        <v>4.016003047154279</v>
       </c>
       <c r="T12">
-        <v>5.348145646087042</v>
+        <v>4.016003047154279</v>
       </c>
       <c r="U12">
-        <v>1.676749892617377</v>
+        <v>1.390287141142696</v>
       </c>
       <c r="V12">
-        <v>209.6291365457212</v>
+        <v>298.2312169883224</v>
       </c>
       <c r="W12">
-        <v>635.2588873353577</v>
+        <v>423.1915964309565</v>
       </c>
       <c r="X12">
         <v>976.4655453830808</v>
       </c>
       <c r="Y12">
-        <v>635.2588873353577</v>
+        <v>423.1915964309567</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>498.9746182533883</v>
+        <v>818.7900057276577</v>
       </c>
       <c r="H13">
-        <v>35.97087477652145</v>
+        <v>83.21448053807126</v>
       </c>
       <c r="I13">
-        <v>463.0037434768669</v>
+        <v>735.5755251895864</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>481.1016779712453</v>
+        <v>747.178584671793</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.9623823085159555</v>
+        <v>0.9844708350583905</v>
       </c>
       <c r="O13">
-        <v>539.9925089263921</v>
+        <v>853.3130213884899</v>
       </c>
       <c r="P13">
-        <v>58.89083095514691</v>
+        <v>106.1344367166967</v>
       </c>
       <c r="Q13">
-        <v>2.215869859953768</v>
+        <v>2.084419884013728</v>
       </c>
       <c r="R13">
-        <v>350.6072606301028</v>
+        <v>525.949854400914</v>
       </c>
       <c r="S13">
-        <v>9.169381721539423</v>
+        <v>8.039926038955928</v>
       </c>
       <c r="T13">
-        <v>13.87162868163201</v>
+        <v>9.839513512952292</v>
       </c>
       <c r="U13">
-        <v>2.62984565220819</v>
+        <v>2.286406270101357</v>
       </c>
       <c r="V13">
-        <v>368.4058948397067</v>
+        <v>545.3134151241129</v>
       </c>
       <c r="W13">
-        <v>643.6217039970115</v>
+        <v>371.0499222842921</v>
       </c>
       <c r="X13">
         <v>1106.625447473878</v>
       </c>
       <c r="Y13">
-        <v>625.5237695026332</v>
+        <v>359.4468628020854</v>
       </c>
       <c r="Z13">
-        <v>1.028932448896016</v>
+        <v>1.032280319243168</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>474.0047423477772</v>
+        <v>829.4438863921494</v>
       </c>
       <c r="H14">
-        <v>60.21404245712295</v>
+        <v>146.3240294505421</v>
       </c>
       <c r="I14">
-        <v>413.7906998906543</v>
+        <v>683.1198569416072</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>422.647022411316</v>
+        <v>683.1198569416069</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.9790455816531393</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>499.0476433600487</v>
+        <v>829.4438863921494</v>
       </c>
       <c r="P14">
-        <v>76.4006209487325</v>
+        <v>146.3240294505421</v>
       </c>
       <c r="Q14">
-        <v>1.876710745128607</v>
+        <v>1.734931917513215</v>
       </c>
       <c r="R14">
-        <v>279.2651561423322</v>
+        <v>429.257627948718</v>
       </c>
       <c r="S14">
-        <v>6.531984127392462</v>
+        <v>5.66854186224077</v>
       </c>
       <c r="T14">
-        <v>7.871996680596643</v>
+        <v>5.66854186224077</v>
       </c>
       <c r="U14">
-        <v>2.063311738077689</v>
+        <v>1.734931917513215</v>
       </c>
       <c r="V14">
-        <v>289.5503592917642</v>
+        <v>429.257627948718</v>
       </c>
       <c r="W14">
-        <v>635.2657502183461</v>
+        <v>365.9365931673931</v>
       </c>
       <c r="X14">
         <v>1049.056450109</v>
       </c>
       <c r="Y14">
-        <v>626.4094276976842</v>
+        <v>365.9365931673933</v>
       </c>
       <c r="Z14">
-        <v>1.014138233125278</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>504.0151765783277</v>
+        <v>898.1422605119153</v>
       </c>
       <c r="H15">
-        <v>70.97240634174683</v>
+        <v>186.8976171603312</v>
       </c>
       <c r="I15">
-        <v>433.0427702365809</v>
+        <v>711.2446433515842</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>433.0427702365808</v>
+        <v>711.2446433515838</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>504.0151765783277</v>
+        <v>898.1422605119153</v>
       </c>
       <c r="P15">
-        <v>70.97240634174683</v>
+        <v>186.8976171603312</v>
       </c>
       <c r="Q15">
-        <v>1.960315221450556</v>
+        <v>1.569767509929165</v>
       </c>
       <c r="R15">
-        <v>293.9144817818807</v>
+        <v>417.8588362501167</v>
       </c>
       <c r="S15">
-        <v>7.10156527807991</v>
+        <v>4.805530825689655</v>
       </c>
       <c r="T15">
-        <v>7.10156527807991</v>
+        <v>4.805530825689655</v>
       </c>
       <c r="U15">
-        <v>1.960315221450556</v>
+        <v>1.569767509929165</v>
       </c>
       <c r="V15">
-        <v>293.9144817818807</v>
+        <v>417.8588362501167</v>
       </c>
       <c r="W15">
-        <v>689.1713990715514</v>
+        <v>410.9695259565482</v>
       </c>
       <c r="X15">
         <v>1122.214169308132</v>
       </c>
       <c r="Y15">
-        <v>689.1713990715516</v>
+        <v>410.9695259565485</v>
       </c>
       <c r="Z15">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>517.9565270564365</v>
+        <v>817.8240993691464</v>
       </c>
       <c r="H16">
-        <v>83.7334551568629</v>
+        <v>164.6927484871939</v>
       </c>
       <c r="I16">
-        <v>434.2230718995736</v>
+        <v>653.1313508819526</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>434.2230718995736</v>
+        <v>653.1313508819528</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O16">
-        <v>517.9565270564365</v>
+        <v>817.8240993691464</v>
       </c>
       <c r="P16">
-        <v>83.7334551568629</v>
+        <v>164.6927484871939</v>
       </c>
       <c r="Q16">
-        <v>1.822252713312427</v>
+        <v>1.60256566843303</v>
       </c>
       <c r="R16">
-        <v>281.6395560449558</v>
+        <v>389.2004063164998</v>
       </c>
       <c r="S16">
-        <v>6.185777549560298</v>
+        <v>4.965756579335601</v>
       </c>
       <c r="T16">
-        <v>6.185777549560298</v>
+        <v>4.965756579335601</v>
       </c>
       <c r="U16">
-        <v>1.822252713312427</v>
+        <v>1.60256566843303</v>
       </c>
       <c r="V16">
-        <v>281.6395560449558</v>
+        <v>389.2004063164998</v>
       </c>
       <c r="W16">
-        <v>568.6552720582108</v>
+        <v>349.7469930758318</v>
       </c>
       <c r="X16">
         <v>1002.878343957784</v>
       </c>
       <c r="Y16">
-        <v>568.6552720582108</v>
+        <v>349.7469930758316</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>525.5309912556432</v>
+        <v>892.8775484461652</v>
       </c>
       <c r="H17">
-        <v>53.84016612734731</v>
+        <v>104.3315733399699</v>
       </c>
       <c r="I17">
-        <v>471.690825128296</v>
+        <v>788.5459751061952</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>471.690825128296</v>
+        <v>795.5460408144911</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.9912009294884692</v>
       </c>
       <c r="O17">
-        <v>525.5309912556432</v>
+        <v>911.2720412530317</v>
       </c>
       <c r="P17">
-        <v>53.84016612734731</v>
+        <v>115.7260004385403</v>
       </c>
       <c r="Q17">
-        <v>2.278389392468204</v>
+        <v>2.063616139117671</v>
       </c>
       <c r="R17">
-        <v>349.0219617350219</v>
+        <v>556.7319985939808</v>
       </c>
       <c r="S17">
-        <v>9.760946688251536</v>
+        <v>7.874393289319537</v>
       </c>
       <c r="T17">
-        <v>9.760946688251536</v>
+        <v>8.558076139968451</v>
       </c>
       <c r="U17">
-        <v>2.278389392468204</v>
+        <v>2.146875414889898</v>
       </c>
       <c r="V17">
-        <v>349.0219617350219</v>
+        <v>564.5590853058314</v>
       </c>
       <c r="W17">
-        <v>614.0388349318953</v>
+        <v>297.183684953996</v>
       </c>
       <c r="X17">
         <v>1085.729660060191</v>
       </c>
       <c r="Y17">
-        <v>614.0388349318953</v>
+        <v>290.1836192457001</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>1.024122883733037</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>435.2779770652961</v>
+        <v>817.2648826237985</v>
       </c>
       <c r="H18">
-        <v>41.60063413142991</v>
+        <v>142.3543919081834</v>
       </c>
       <c r="I18">
-        <v>393.6773429338662</v>
+        <v>674.9104907156151</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>416.7634124449573</v>
+        <v>675.2686233886986</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.9446062950304206</v>
+        <v>0.9994696441376376</v>
       </c>
       <c r="O18">
-        <v>503.6323301907561</v>
+        <v>908.2513934362495</v>
       </c>
       <c r="P18">
-        <v>86.86891774579868</v>
+        <v>232.9827700475509</v>
       </c>
       <c r="Q18">
-        <v>1.757446208389496</v>
+        <v>1.360556702761525</v>
       </c>
       <c r="R18">
-        <v>264.0959623257045</v>
+        <v>358.2823539725561</v>
       </c>
       <c r="S18">
-        <v>5.797612578350715</v>
+        <v>3.898362927227961</v>
       </c>
       <c r="T18">
-        <v>10.4632534131598</v>
+        <v>5.74105843640513</v>
       </c>
       <c r="U18">
-        <v>2.347869444038691</v>
+        <v>1.747643589918774</v>
       </c>
       <c r="V18">
-        <v>296.0044852040489</v>
+        <v>426.1257502004934</v>
       </c>
       <c r="W18">
-        <v>667.2444309583179</v>
+        <v>386.011283176569</v>
       </c>
       <c r="X18">
         <v>1060.921773892184</v>
       </c>
       <c r="Y18">
-        <v>644.1583614472268</v>
+        <v>385.6531505034854</v>
       </c>
       <c r="Z18">
-        <v>1.03583912108076</v>
+        <v>1.000928639303519</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>506.8646913088755</v>
+        <v>841.7680953541126</v>
       </c>
       <c r="H19">
-        <v>92.84540610367907</v>
+        <v>172.7041301859817</v>
       </c>
       <c r="I19">
-        <v>414.0192852051965</v>
+        <v>669.0639651681308</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>414.0192852051964</v>
+        <v>669.0639651681307</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>506.8646913088755</v>
+        <v>841.7680953541128</v>
       </c>
       <c r="P19">
-        <v>92.84540610367907</v>
+        <v>172.7041301859817</v>
       </c>
       <c r="Q19">
-        <v>1.697308276885303</v>
+        <v>1.583924654866474</v>
       </c>
       <c r="R19">
-        <v>256.4320089546447</v>
+        <v>395.5136353692854</v>
       </c>
       <c r="S19">
-        <v>5.459232853619784</v>
+        <v>4.874047276388985</v>
       </c>
       <c r="T19">
-        <v>5.459232853619784</v>
+        <v>4.874047276388984</v>
       </c>
       <c r="U19">
-        <v>1.697308276885303</v>
+        <v>1.583924654866474</v>
       </c>
       <c r="V19">
-        <v>256.4320089546447</v>
+        <v>395.5136353692852</v>
       </c>
       <c r="W19">
-        <v>674.7681980248449</v>
+        <v>419.7235180619105</v>
       </c>
       <c r="X19">
         <v>1088.787483230041</v>
       </c>
       <c r="Y19">
-        <v>674.7681980248449</v>
+        <v>419.7235180619106</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>444.7102097108975</v>
+        <v>816.7978921939</v>
       </c>
       <c r="H20">
-        <v>37.04318147193647</v>
+        <v>124.9036653378588</v>
       </c>
       <c r="I20">
-        <v>407.667028238961</v>
+        <v>691.8942268560412</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>429.3110576606688</v>
+        <v>700.7387290775803</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>0.9495842722066212</v>
+        <v>0.9873783168326067</v>
       </c>
       <c r="O20">
-        <v>504.9803370094003</v>
+        <v>865.2874068575413</v>
       </c>
       <c r="P20">
-        <v>75.66927934873149</v>
+        <v>164.5486777799607</v>
       </c>
       <c r="Q20">
-        <v>1.898147234847214</v>
+        <v>1.659855274020414</v>
       </c>
       <c r="R20">
-        <v>285.6796243019928</v>
+        <v>427.6117384314273</v>
       </c>
       <c r="S20">
-        <v>6.673518518421911</v>
+        <v>5.258549740610065</v>
       </c>
       <c r="T20">
-        <v>12.00518400526168</v>
+        <v>6.53942292233377</v>
       </c>
       <c r="U20">
-        <v>2.485338556941149</v>
+        <v>1.877848923400626</v>
       </c>
       <c r="V20">
-        <v>315.6021810549893</v>
+        <v>457.3440133725509</v>
       </c>
       <c r="W20">
-        <v>648.3000722829404</v>
+        <v>364.0728736658601</v>
       </c>
       <c r="X20">
         <v>1055.967100521901</v>
       </c>
       <c r="Y20">
-        <v>626.6560428612324</v>
+        <v>355.2283714443211</v>
       </c>
       <c r="Z20">
-        <v>1.034538930356251</v>
+        <v>1.024898073837904</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,64 +2159,64 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>465.0934976583241</v>
+        <v>879.2841512192156</v>
       </c>
       <c r="H21">
-        <v>72.25019574544778</v>
+        <v>208.4181420990253</v>
       </c>
       <c r="I21">
-        <v>392.8433019128763</v>
+        <v>670.8660091201903</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>392.8433019128763</v>
+        <v>670.8660091201903</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>465.0934976583241</v>
+        <v>879.2841512192156</v>
       </c>
       <c r="P21">
-        <v>72.25019574544778</v>
+        <v>208.4181420990253</v>
       </c>
       <c r="Q21">
-        <v>1.862103419339976</v>
+        <v>1.439561751598643</v>
       </c>
       <c r="R21">
-        <v>258.3059653672954</v>
+        <v>370.8352234151824</v>
       </c>
       <c r="S21">
-        <v>6.43726280406137</v>
+        <v>4.218846509059864</v>
       </c>
       <c r="T21">
-        <v>6.43726280406137</v>
+        <v>4.218846509059864</v>
       </c>
       <c r="U21">
-        <v>1.862103419339976</v>
+        <v>1.439561751598643</v>
       </c>
       <c r="V21">
-        <v>258.3059653672954</v>
+        <v>370.8352234151824</v>
       </c>
       <c r="W21">
-        <v>595.1931356340108</v>
+        <v>317.1704284266968</v>
       </c>
       <c r="X21">
         <v>988.0364375468871</v>
       </c>
       <c r="Y21">
-        <v>595.1931356340108</v>
+        <v>317.1704284266968</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>643.6583177023605</v>
+        <v>1026.32285866907</v>
       </c>
       <c r="H22">
-        <v>11.4281668067135</v>
+        <v>26.44480596620625</v>
       </c>
       <c r="I22">
-        <v>632.2301508956469</v>
+        <v>999.878052702864</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>667.499129431919</v>
+        <v>999.8780527028638</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>0.9471625100600686</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>688.4041335709715</v>
+        <v>1026.32285866907</v>
       </c>
       <c r="P22">
-        <v>20.90500413905261</v>
+        <v>26.44480596620625</v>
       </c>
       <c r="Q22">
-        <v>3.494387506123712</v>
+        <v>3.658677886062841</v>
       </c>
       <c r="R22">
-        <v>594.4489441529489</v>
+        <v>903.1250259130825</v>
       </c>
       <c r="S22">
-        <v>32.93011228277943</v>
+        <v>38.8099976978695</v>
       </c>
       <c r="T22">
-        <v>56.32209684971017</v>
+        <v>38.8099976978695</v>
       </c>
       <c r="U22">
-        <v>4.031086942153005</v>
+        <v>3.658677886062841</v>
       </c>
       <c r="V22">
-        <v>586.1622169083578</v>
+        <v>903.1250259130825</v>
       </c>
       <c r="W22">
-        <v>459.3635089676387</v>
+        <v>91.71560716042165</v>
       </c>
       <c r="X22">
         <v>1091.593659863286</v>
       </c>
       <c r="Y22">
-        <v>424.0945304313667</v>
+        <v>91.71560716042188</v>
       </c>
       <c r="Z22">
-        <v>1.083163012030356</v>
+        <v>0.9999999999999976</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>538.5571331676412</v>
+        <v>834.6814578131207</v>
       </c>
       <c r="H23">
-        <v>6.907039455684126</v>
+        <v>27.34778781836857</v>
       </c>
       <c r="I23">
-        <v>531.6500937119571</v>
+        <v>807.3336699947521</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>531.6500937119573</v>
+        <v>807.333669994752</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>538.5571331676412</v>
+        <v>834.6814578131207</v>
       </c>
       <c r="P23">
-        <v>6.907039455684126</v>
+        <v>27.34778781836857</v>
       </c>
       <c r="Q23">
-        <v>4.356352485334008</v>
+        <v>3.418414522974997</v>
       </c>
       <c r="R23">
-        <v>501.5605952128875</v>
+        <v>713.8475949452022</v>
       </c>
       <c r="S23">
-        <v>77.9722103258636</v>
+        <v>30.52098631730988</v>
       </c>
       <c r="T23">
-        <v>77.9722103258636</v>
+        <v>30.52098631730988</v>
       </c>
       <c r="U23">
-        <v>4.356352485334008</v>
+        <v>3.418414522974997</v>
       </c>
       <c r="V23">
-        <v>501.5605952128875</v>
+        <v>713.8475949452022</v>
       </c>
       <c r="W23">
-        <v>404.8071830114944</v>
+        <v>129.1236067286994</v>
       </c>
       <c r="X23">
         <v>936.4572767234515</v>
       </c>
       <c r="Y23">
-        <v>404.8071830114942</v>
+        <v>129.1236067286995</v>
       </c>
       <c r="Z23">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>560.5681606486503</v>
+        <v>942.1686158532447</v>
       </c>
       <c r="H24">
-        <v>3.317359744532879</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="I24">
-        <v>557.2508009041175</v>
+        <v>919.4102495378969</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>608.7419552818253</v>
+        <v>944.1106363531736</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.9154138236555925</v>
+        <v>0.9738374022448395</v>
       </c>
       <c r="O24">
-        <v>654.8531363540123</v>
+        <v>985.8466438959207</v>
       </c>
       <c r="P24">
-        <v>46.11118107218711</v>
+        <v>41.73600754274699</v>
       </c>
       <c r="Q24">
-        <v>2.653355531066012</v>
+        <v>3.162136562486642</v>
       </c>
       <c r="R24">
-        <v>486.3925979399511</v>
+        <v>812.1356809300353</v>
       </c>
       <c r="S24">
-        <v>14.2016127352895</v>
+        <v>23.62100981715114</v>
       </c>
       <c r="T24">
-        <v>168.9802143323423</v>
+        <v>41.3987806856711</v>
       </c>
       <c r="U24">
-        <v>5.129781633112712</v>
+        <v>3.723251428360619</v>
       </c>
       <c r="V24">
-        <v>540.2334698161852</v>
+        <v>834.6751296471243</v>
       </c>
       <c r="W24">
-        <v>529.2668030052724</v>
+        <v>167.107354371493</v>
       </c>
       <c r="X24">
         <v>1086.51760390939</v>
       </c>
       <c r="Y24">
-        <v>477.7756486275646</v>
+        <v>142.4069675562163</v>
       </c>
       <c r="Z24">
-        <v>1.107772663855136</v>
+        <v>1.173449285797944</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>565.1724489516334</v>
+        <v>966.2879719167693</v>
       </c>
       <c r="H25">
-        <v>38.07317009354327</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="I25">
-        <v>527.0992788580902</v>
+        <v>892.5315257935496</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>527.0992788580903</v>
+        <v>892.5315257935497</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O25">
-        <v>565.1724489516336</v>
+        <v>966.2879719167693</v>
       </c>
       <c r="P25">
-        <v>38.07317009354327</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.697621066910294</v>
+        <v>2.572693500900644</v>
       </c>
       <c r="R25">
-        <v>424.392293129689</v>
+        <v>702.7787962028137</v>
       </c>
       <c r="S25">
-        <v>14.84437590993979</v>
+        <v>13.10106468934878</v>
       </c>
       <c r="T25">
-        <v>14.84437590993978</v>
+        <v>13.10106468934878</v>
       </c>
       <c r="U25">
-        <v>2.697621066910294</v>
+        <v>2.572693500900644</v>
       </c>
       <c r="V25">
-        <v>424.3922931296889</v>
+        <v>702.7787962028137</v>
       </c>
       <c r="W25">
-        <v>487.2035124036018</v>
+        <v>121.7712654681425</v>
       </c>
       <c r="X25">
         <v>1014.302791261692</v>
       </c>
       <c r="Y25">
-        <v>487.2035124036017</v>
+        <v>121.7712654681424</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>654.114355491709</v>
+        <v>995.142861048952</v>
       </c>
       <c r="H26">
-        <v>24.38298612188556</v>
+        <v>52.81935185051562</v>
       </c>
       <c r="I26">
-        <v>629.7313693698235</v>
+        <v>942.3235091984363</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>629.7313693698236</v>
+        <v>957.1562547441333</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.9999999999999998</v>
+        <v>0.9845033185833779</v>
       </c>
       <c r="O26">
-        <v>654.114355491709</v>
+        <v>1024.798213576305</v>
       </c>
       <c r="P26">
-        <v>24.38298612188556</v>
+        <v>67.64195883217219</v>
       </c>
       <c r="Q26">
-        <v>3.289396592670972</v>
+        <v>2.718022524106048</v>
       </c>
       <c r="R26">
-        <v>549.5260579013495</v>
+        <v>773.3038870636351</v>
       </c>
       <c r="S26">
-        <v>26.82667136100251</v>
+        <v>15.15033318474636</v>
       </c>
       <c r="T26">
-        <v>26.82667136100251</v>
+        <v>18.84049739696375</v>
       </c>
       <c r="U26">
-        <v>3.289396592670972</v>
+        <v>2.936008669912439</v>
       </c>
       <c r="V26">
-        <v>549.5260579013495</v>
+        <v>787.2454342261668</v>
       </c>
       <c r="W26">
-        <v>478.0925617625188</v>
+        <v>165.500421933906</v>
       </c>
       <c r="X26">
         <v>1107.823931132342</v>
       </c>
       <c r="Y26">
-        <v>478.0925617625187</v>
+        <v>150.667676388209</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>1.098446766428381</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>688.332419714242</v>
+        <v>988.5010461444532</v>
       </c>
       <c r="H27">
-        <v>19.33742141962198</v>
+        <v>46.92385746244165</v>
       </c>
       <c r="I27">
-        <v>668.99499829462</v>
+        <v>941.5771886820115</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>668.9949982946198</v>
+        <v>941.5771886820114</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>688.332419714242</v>
+        <v>988.5010461444532</v>
       </c>
       <c r="P27">
-        <v>19.33742141962198</v>
+        <v>46.92385746244165</v>
       </c>
       <c r="Q27">
-        <v>3.572229737170086</v>
+        <v>3.047663466912241</v>
       </c>
       <c r="R27">
-        <v>599.9172864592566</v>
+        <v>798.5690625671308</v>
       </c>
       <c r="S27">
-        <v>35.59587417460843</v>
+        <v>21.06606531518982</v>
       </c>
       <c r="T27">
-        <v>35.59587417460843</v>
+        <v>21.06606531518982</v>
       </c>
       <c r="U27">
-        <v>3.572229737170086</v>
+        <v>3.047663466912241</v>
       </c>
       <c r="V27">
-        <v>599.9172864592566</v>
+        <v>798.5690625671308</v>
       </c>
       <c r="W27">
-        <v>416.2254289725458</v>
+        <v>143.6432385851543</v>
       </c>
       <c r="X27">
         <v>1085.220427267166</v>
       </c>
       <c r="Y27">
-        <v>416.2254289725461</v>
+        <v>143.6432385851544</v>
       </c>
       <c r="Z27">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>779.9290081588406</v>
+        <v>1167.702173078015</v>
       </c>
       <c r="H28">
-        <v>34.53308565636632</v>
+        <v>55.94261463938647</v>
       </c>
       <c r="I28">
-        <v>745.3959225024743</v>
+        <v>1111.759558438628</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>745.3959225024744</v>
+        <v>1111.759558438628</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>779.9290081588406</v>
+        <v>1167.702173078015</v>
       </c>
       <c r="P28">
-        <v>34.53308565636632</v>
+        <v>55.94261463938647</v>
       </c>
       <c r="Q28">
-        <v>3.117285031341922</v>
+        <v>3.038466715320712</v>
       </c>
       <c r="R28">
-        <v>637.7464514998351</v>
+        <v>941.7797858888393</v>
       </c>
       <c r="S28">
-        <v>22.58497882059541</v>
+        <v>20.87321410708416</v>
       </c>
       <c r="T28">
-        <v>22.58497882059541</v>
+        <v>20.87321410708416</v>
       </c>
       <c r="U28">
-        <v>3.117285031341922</v>
+        <v>3.038466715320712</v>
       </c>
       <c r="V28">
-        <v>637.7464514998351</v>
+        <v>941.7797858888393</v>
       </c>
       <c r="W28">
-        <v>455.72848871965</v>
+        <v>89.36485278349596</v>
       </c>
       <c r="X28">
         <v>1201.124411222124</v>
       </c>
       <c r="Y28">
-        <v>455.7284887196499</v>
+        <v>89.36485278349642</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.9999999999999949</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>524.8087351725844</v>
+        <v>865.7291707031662</v>
       </c>
       <c r="H29">
-        <v>15.30864569924952</v>
+        <v>62.8951415876321</v>
       </c>
       <c r="I29">
-        <v>509.5000894733349</v>
+        <v>802.8340291155341</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>509.5000894733349</v>
+        <v>802.8340291155341</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>524.8087351725844</v>
+        <v>865.7291707031663</v>
       </c>
       <c r="P29">
-        <v>15.30864569924952</v>
+        <v>62.8951415876321</v>
       </c>
       <c r="Q29">
-        <v>3.534616135072147</v>
+        <v>2.622103203278788</v>
       </c>
       <c r="R29">
-        <v>455.3899033786647</v>
+        <v>637.9164768879311</v>
       </c>
       <c r="S29">
-        <v>34.28185258728094</v>
+        <v>13.76464300500766</v>
       </c>
       <c r="T29">
-        <v>34.28185258728094</v>
+        <v>13.76464300500765</v>
       </c>
       <c r="U29">
-        <v>3.534616135072147</v>
+        <v>2.622103203278788</v>
       </c>
       <c r="V29">
-        <v>455.3899033786647</v>
+        <v>637.9164768879311</v>
       </c>
       <c r="W29">
-        <v>412.6436463518413</v>
+        <v>119.3097067096421</v>
       </c>
       <c r="X29">
         <v>922.1437358251762</v>
       </c>
       <c r="Y29">
-        <v>412.6436463518414</v>
+        <v>119.3097067096421</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>524.6575727565482</v>
+        <v>851.2745361680345</v>
       </c>
       <c r="H30">
-        <v>41.94637589921254</v>
+        <v>84.74311468114243</v>
       </c>
       <c r="I30">
-        <v>482.7111968573357</v>
+        <v>766.5314214868921</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>482.7111968573355</v>
+        <v>777.0037668159453</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.9865221434228467</v>
       </c>
       <c r="O30">
-        <v>524.6575727565482</v>
+        <v>848.786919010911</v>
       </c>
       <c r="P30">
-        <v>41.94637589921254</v>
+        <v>71.78315219496568</v>
       </c>
       <c r="Q30">
-        <v>2.52635376919962</v>
+        <v>2.470158376600579</v>
       </c>
       <c r="R30">
-        <v>376.739812000096</v>
+        <v>599.6880121227565</v>
       </c>
       <c r="S30">
-        <v>12.50781650403313</v>
+        <v>11.82431939886917</v>
       </c>
       <c r="T30">
-        <v>12.50781650403313</v>
+        <v>10.04535341155528</v>
       </c>
       <c r="U30">
-        <v>2.52635376919962</v>
+        <v>2.307110180480777</v>
       </c>
       <c r="V30">
-        <v>376.739812000096</v>
+        <v>571.0197188803784</v>
       </c>
       <c r="W30">
-        <v>572.1878122041554</v>
+        <v>288.367587574599</v>
       </c>
       <c r="X30">
         <v>1054.899009061491</v>
       </c>
       <c r="Y30">
-        <v>572.1878122041556</v>
+        <v>277.8952422455459</v>
       </c>
       <c r="Z30">
-        <v>0.9999999999999996</v>
+        <v>1.037684507458389</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>724.8431737829848</v>
+        <v>998.1276565272043</v>
       </c>
       <c r="H31">
-        <v>4.531005855662935</v>
+        <v>19.73441505149106</v>
       </c>
       <c r="I31">
-        <v>720.3121679273219</v>
+        <v>978.3932414757132</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>720.3121679273218</v>
+        <v>1002.505455770264</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9759480468103543</v>
       </c>
       <c r="O31">
-        <v>724.8431737829848</v>
+        <v>1055.43666152</v>
       </c>
       <c r="P31">
-        <v>4.531005855662935</v>
+        <v>52.93120574973614</v>
       </c>
       <c r="Q31">
-        <v>5.075011361392683</v>
+        <v>2.992716791761358</v>
       </c>
       <c r="R31">
-        <v>697.3172617312957</v>
+        <v>844.0973475148535</v>
       </c>
       <c r="S31">
-        <v>159.9740094966027</v>
+        <v>19.93978120412006</v>
       </c>
       <c r="T31">
-        <v>159.9740094966027</v>
+        <v>50.57802087991401</v>
       </c>
       <c r="U31">
-        <v>5.075011361392683</v>
+        <v>3.923517111965287</v>
       </c>
       <c r="V31">
-        <v>697.3172617312957</v>
+        <v>900.9649263265627</v>
       </c>
       <c r="W31">
-        <v>371.9790619251177</v>
+        <v>113.8979883767263</v>
       </c>
       <c r="X31">
         <v>1092.29122985244</v>
       </c>
       <c r="Y31">
-        <v>371.9790619251178</v>
+        <v>89.78577408217552</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999997</v>
+        <v>1.26855272498383</v>
       </c>
     </row>
   </sheetData>
